--- a/inventories/lci-EP2050.xlsx
+++ b/inventories/lci-EP2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Library/CloudStorage/Dropbox/EP2050/energy-perspective-2050-switzerland/inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6315C1E-1B02-6A4C-A46C-ADF155125B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2716C47-40CE-814E-B995-DAE506A2B4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,9 +380,6 @@
     <t>transport, freight, lorry, unspecified</t>
   </si>
   <si>
-    <t>treatment of wastewater, average, capacity 1E9l/year</t>
-  </si>
-  <si>
     <t>wastewater, average</t>
   </si>
   <si>
@@ -598,6 +595,9 @@
   </si>
   <si>
     <t>methane, synthetic, gaseous, 5 bar, from electrochemical methanation, at fuelling station, EP2050</t>
+  </si>
+  <si>
+    <t>treatment of wastewater, average, wastewater treatment</t>
   </si>
 </sst>
 </file>
@@ -1441,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2013,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2108,7 +2108,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2203,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2292,7 +2292,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B65">
         <v>0.875</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2388,7 +2388,7 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2453,7 +2453,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B82" s="1">
         <v>1.9300000000000002E-9</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="B123">
         <v>-6.8899999999999999E-7</v>
@@ -3152,7 +3152,7 @@
         <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -3177,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -3193,7 +3193,7 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -3201,7 +3201,7 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -3225,7 +3225,7 @@
         <v>54</v>
       </c>
       <c r="B132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -3241,7 +3241,7 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -3249,7 +3249,7 @@
         <v>54</v>
       </c>
       <c r="B135" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -3285,7 +3285,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -3300,15 +3300,15 @@
         <v>22</v>
       </c>
       <c r="G138" t="s">
+        <v>127</v>
+      </c>
+      <c r="H138" t="s">
         <v>128</v>
-      </c>
-      <c r="H138" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -3323,10 +3323,10 @@
         <v>19</v>
       </c>
       <c r="G139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -3371,7 +3371,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B142" s="1">
         <v>1.6700000000000001E-6</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B143">
         <v>12.45682789</v>
@@ -3406,10 +3406,10 @@
         <v>22</v>
       </c>
       <c r="G143" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H143" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -3417,7 +3417,7 @@
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -3433,7 +3433,7 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -3465,7 +3465,7 @@
         <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -3473,7 +3473,7 @@
         <v>54</v>
       </c>
       <c r="B152" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -3506,7 +3506,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B155">
         <v>12.89</v>
@@ -3521,12 +3521,12 @@
         <v>22</v>
       </c>
       <c r="G155" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -3541,7 +3541,7 @@
         <v>19</v>
       </c>
       <c r="G156" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -3586,7 +3586,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B159" s="1">
         <v>7.9300000000000003E-6</v>
@@ -3601,12 +3601,12 @@
         <v>22</v>
       </c>
       <c r="G159" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B160" s="1">
         <v>2.1100000000000001E-5</v>
@@ -3621,27 +3621,27 @@
         <v>22</v>
       </c>
       <c r="G160" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B161" s="1">
         <v>3.9600000000000002E-6</v>
       </c>
       <c r="C161" t="s">
+        <v>137</v>
+      </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>22</v>
+      </c>
+      <c r="G161" t="s">
         <v>138</v>
-      </c>
-      <c r="D161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -3686,7 +3686,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="B164">
         <v>-6.8819598999999995E-2</v>
@@ -3701,7 +3701,7 @@
         <v>22</v>
       </c>
       <c r="G164" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -3709,7 +3709,7 @@
         <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -3725,7 +3725,7 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -3757,7 +3757,7 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -3765,7 +3765,7 @@
         <v>54</v>
       </c>
       <c r="B173" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -3804,7 +3804,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -3819,15 +3819,15 @@
         <v>19</v>
       </c>
       <c r="G176" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H176" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B177">
         <v>2.371</v>
@@ -3842,10 +3842,10 @@
         <v>22</v>
       </c>
       <c r="G177" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H177" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -3868,7 +3868,7 @@
         <v>86</v>
       </c>
       <c r="I178" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -3888,7 +3888,7 @@
         <v>22</v>
       </c>
       <c r="G179" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H179" t="s">
         <v>36</v>
@@ -3911,13 +3911,13 @@
         <v>22</v>
       </c>
       <c r="G180" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
       </c>
       <c r="I180" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -3925,7 +3925,7 @@
         <v>3</v>
       </c>
       <c r="B182" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -3949,7 +3949,7 @@
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -3998,7 +3998,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4013,12 +4013,12 @@
         <v>19</v>
       </c>
       <c r="G190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B191">
         <v>1.00057</v>
@@ -4033,7 +4033,7 @@
         <v>22</v>
       </c>
       <c r="G191" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -4218,7 +4218,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="B201">
         <v>-6.8899999999999999E-7</v>
@@ -4233,7 +4233,7 @@
         <v>22</v>
       </c>
       <c r="G201" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -4258,7 +4258,7 @@
         <v>3</v>
       </c>
       <c r="B204" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -4282,7 +4282,7 @@
         <v>8</v>
       </c>
       <c r="B207" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -4306,7 +4306,7 @@
         <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -4314,7 +4314,7 @@
         <v>54</v>
       </c>
       <c r="B211" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -4350,13 +4350,13 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D214" t="s">
         <v>11</v>
@@ -4368,18 +4368,18 @@
         <v>19</v>
       </c>
       <c r="H214" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B215">
         <v>1.02</v>
       </c>
       <c r="C215" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D215" t="s">
         <v>11</v>
@@ -4391,18 +4391,18 @@
         <v>22</v>
       </c>
       <c r="H215" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B216">
         <v>0.209888988</v>
       </c>
       <c r="C216" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D216" t="s">
         <v>11</v>
@@ -4419,13 +4419,13 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B217">
         <v>4.1393706000000002E-2</v>
       </c>
       <c r="C217" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D217" t="s">
         <v>11</v>
@@ -4437,41 +4437,41 @@
         <v>22</v>
       </c>
       <c r="H217" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B218" s="1">
         <v>2.3400000000000001E-8</v>
       </c>
       <c r="C218" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D218" t="s">
+        <v>159</v>
+      </c>
+      <c r="F218" t="s">
         <v>160</v>
       </c>
-      <c r="F218" t="s">
+      <c r="G218" t="s">
+        <v>22</v>
+      </c>
+      <c r="H218" t="s">
         <v>161</v>
-      </c>
-      <c r="G218" t="s">
-        <v>22</v>
-      </c>
-      <c r="H218" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B219" s="1">
         <v>8.4800000000000005E-8</v>
       </c>
       <c r="C219" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D219" t="s">
         <v>62</v>
@@ -4483,7 +4483,7 @@
         <v>22</v>
       </c>
       <c r="H219" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -4508,7 +4508,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B221" s="1">
         <v>4.3999999999999997E-9</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B222">
         <v>3.0041999999999997E-4</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B223" s="1">
         <v>1.1999999999999999E-6</v>
@@ -4571,7 +4571,7 @@
         <v>3</v>
       </c>
       <c r="B225" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -4587,7 +4587,7 @@
         <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -4619,7 +4619,7 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -4627,7 +4627,7 @@
         <v>54</v>
       </c>
       <c r="B232" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -4655,13 +4655,13 @@
         <v>18</v>
       </c>
       <c r="G234" t="s">
+        <v>168</v>
+      </c>
+      <c r="H234" t="s">
         <v>169</v>
       </c>
-      <c r="H234" t="s">
+      <c r="I234" t="s">
         <v>170</v>
-      </c>
-      <c r="I234" t="s">
-        <v>171</v>
       </c>
       <c r="J234" t="s">
         <v>79</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -4687,21 +4687,21 @@
         <v>13</v>
       </c>
       <c r="E235" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F235" t="s">
         <v>19</v>
       </c>
       <c r="J235" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K235" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B236" s="1">
         <v>8.0600000000000008E-6</v>
@@ -4713,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="E236" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F236" t="s">
         <v>22</v>
@@ -4728,10 +4728,10 @@
         <v>0.41862376200000001</v>
       </c>
       <c r="J236" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K236" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
@@ -4748,7 +4748,7 @@
         <v>13</v>
       </c>
       <c r="E237" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F237" t="s">
         <v>22</v>
@@ -4763,7 +4763,7 @@
         <v>0.206054825</v>
       </c>
       <c r="J237" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K237" t="s">
         <v>51</v>
@@ -4783,7 +4783,7 @@
         <v>13</v>
       </c>
       <c r="E238" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F238" t="s">
         <v>22</v>
@@ -4792,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K238" t="s">
         <v>9</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B239">
         <v>1.7655399999999999E-4</v>
@@ -4812,7 +4812,7 @@
         <v>13</v>
       </c>
       <c r="E239" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F239" t="s">
         <v>22</v>
@@ -4827,10 +4827,10 @@
         <v>7.4210002999999997E-2</v>
       </c>
       <c r="J239" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K239" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -4838,7 +4838,7 @@
         <v>3</v>
       </c>
       <c r="B241" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -4862,7 +4862,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -4886,7 +4886,7 @@
         <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -4894,7 +4894,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -4930,13 +4930,13 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B251">
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D251" t="s">
         <v>11</v>
@@ -4948,7 +4948,7 @@
         <v>19</v>
       </c>
       <c r="H251" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>9.375E-2</v>
       </c>
       <c r="C252" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D252" t="s">
         <v>11</v>
@@ -4982,7 +4982,7 @@
         <v>31.25</v>
       </c>
       <c r="C253" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D253" t="s">
         <v>39</v>
@@ -5002,7 +5002,7 @@
         <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -5026,7 +5026,7 @@
         <v>8</v>
       </c>
       <c r="B258" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -5050,7 +5050,7 @@
         <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -5058,7 +5058,7 @@
         <v>54</v>
       </c>
       <c r="B262" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -5094,13 +5094,13 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D265" t="s">
         <v>11</v>
@@ -5112,7 +5112,7 @@
         <v>19</v>
       </c>
       <c r="H265" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -5123,7 +5123,7 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="C266" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D266" t="s">
         <v>11</v>
